--- a/Country_Data_RAW.xlsx
+++ b/Country_Data_RAW.xlsx
@@ -612,10 +612,8 @@
       <c r="G4" t="n">
         <v>-1.87955236434937</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H4" t="n">
+        <v>61.48055440565444</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -660,10 +658,8 @@
       <c r="G5" t="n">
         <v>-1.04042935371399</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H5" t="n">
+        <v>27.67608406192348</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -708,10 +704,8 @@
       <c r="G6" t="n">
         <v>0.0650628432631493</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H6" t="n">
+        <v>102.6155474452555</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -756,10 +750,8 @@
       <c r="G7" t="n">
         <v>1.29996228218079</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H7" t="n">
+        <v>131.8663052661222</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -804,10 +796,8 @@
       <c r="G8" t="n">
         <v>-0.282877296209335</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H8" t="n">
+        <v>16.73874169160555</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -852,10 +842,8 @@
       <c r="G9" t="n">
         <v>-0.314229518175125</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H9" t="n">
+        <v>98.03210396909027</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -950,10 +938,8 @@
       <c r="G11" t="n">
         <v>-0.159468576312065</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H11" t="n">
+        <v>211.8613636363636</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -998,10 +984,8 @@
       <c r="G12" t="n">
         <v>1.52887463569641</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H12" t="n">
+        <v>3.339228447143923</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1046,10 +1030,8 @@
       <c r="G13" t="n">
         <v>1.46545016765594</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H13" t="n">
+        <v>108.5288051381483</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1094,10 +1076,8 @@
       <c r="G14" t="n">
         <v>-0.0406579151749611</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H14" t="n">
+        <v>122.6588021778584</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1142,10 +1122,8 @@
       <c r="G15" t="n">
         <v>-1.26284074783325</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H15" t="n">
+        <v>488.7544003115265</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1190,10 +1168,8 @@
       <c r="G16" t="n">
         <v>1.22765874862671</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H16" t="n">
+        <v>382.6352377807133</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1238,10 +1214,8 @@
       <c r="G17" t="n">
         <v>-0.164296001195908</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H17" t="n">
+        <v>115.2615732529266</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1286,10 +1260,8 @@
       <c r="G18" t="n">
         <v>-0.825155377388</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H18" t="n">
+        <v>80.77735014619883</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1334,10 +1306,8 @@
       <c r="G19" t="n">
         <v>-0.76255190372467</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H19" t="n">
+        <v>1301.039033571484</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1382,10 +1352,8 @@
       <c r="G20" t="n">
         <v>-0.270799845457077</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H20" t="n">
+        <v>63.35430176860722</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1430,10 +1398,8 @@
       <c r="G21" t="n">
         <v>0.640424907207489</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H21" t="n">
+        <v>1852.23417721519</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1478,10 +1444,8 @@
       <c r="G22" t="n">
         <v>0.424218326807022</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H22" t="n">
+        <v>40.74985014985015</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1526,10 +1490,8 @@
       <c r="G23" t="n">
         <v>-1.06442642211914</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H23" t="n">
+        <v>63.88560546875</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1574,10 +1536,8 @@
       <c r="G24" t="n">
         <v>-0.851105093955994</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H24" t="n">
+        <v>45.83683173195368</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1622,10 +1582,8 @@
       <c r="G25" t="n">
         <v>-0.356178641319275</v>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H25" t="n">
+        <v>17.53752740026304</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1720,10 +1678,8 @@
       <c r="G27" t="n">
         <v>-0.563976764678955</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H27" t="n">
+        <v>11.15062494230592</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1768,10 +1724,8 @@
       <c r="G28" t="n">
         <v>-0.587532162666321</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H28" t="n">
+        <v>25.64281323356632</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1816,10 +1770,8 @@
       <c r="G29" t="n">
         <v>0.428703635931015</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H29" t="n">
+        <v>653.953488372093</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1864,10 +1816,8 @@
       <c r="G30" t="n">
         <v>1.4222446680069</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H30" t="n">
+        <v>84.51100569259962</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1912,10 +1862,8 @@
       <c r="G31" t="n">
         <v>0.556007385253906</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H31" t="n">
+        <v>20.38505506030414</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1960,10 +1908,8 @@
       <c r="G32" t="n">
         <v>0.463997155427933</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H32" t="n">
+        <v>4.567294831754098</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2008,10 +1954,8 @@
       <c r="G33" t="n">
         <v>-1.7093962430954</v>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H33" t="n">
+        <v>8.759757937654499</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2056,10 +2000,8 @@
       <c r="G34" t="n">
         <v>1.56707048416138</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H34" t="n">
+        <v>4.349505387599987</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2104,10 +2046,8 @@
       <c r="G35" t="n">
         <v>2.04994893074036</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H35" t="n">
+        <v>220.3145410372104</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2202,10 +2142,8 @@
       <c r="G37" t="n">
         <v>0.546773970127106</v>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H37" t="n">
+        <v>26.21700747244234</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2250,10 +2188,8 @@
       <c r="G38" t="n">
         <v>0.495032012462616</v>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H38" t="n">
+        <v>150.4397536910657</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2298,10 +2234,8 @@
       <c r="G39" t="n">
         <v>-0.342977225780487</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H39" t="n">
+        <v>86.40958805031447</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2346,10 +2280,8 @@
       <c r="G40" t="n">
         <v>-0.881544709205627</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H40" t="n">
+        <v>57.53766156840346</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2394,10 +2326,8 @@
       <c r="G41" t="n">
         <v>-1.36932182312012</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H41" t="n">
+        <v>17.08874377745241</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2492,10 +2422,8 @@
       <c r="G43" t="n">
         <v>0.0144156282767653</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H43" t="n">
+        <v>46.43223253717891</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2540,10 +2468,8 @@
       <c r="G44" t="n">
         <v>-1.68251287937164</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H44" t="n">
+        <v>441.4965072541644</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2588,10 +2514,8 @@
       <c r="G45" t="n">
         <v>-0.0262028370052576</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H45" t="n">
+        <v>145.8870967741935</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2636,10 +2560,8 @@
       <c r="G46" t="n">
         <v>0.0532664284110069</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H46" t="n">
+        <v>100.9392283587936</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2684,10 +2606,8 @@
       <c r="G47" t="n">
         <v>-0.350331842899323</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H47" t="n">
+        <v>108.4428901734104</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2832,10 +2752,8 @@
       <c r="G50" t="n">
         <v>0.730678856372833</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H50" t="n">
+        <v>134.652380952381</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2880,10 +2798,8 @@
       <c r="G51" t="n">
         <v>1.0939074754715</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H51" t="n">
+        <v>136.1083490538477</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -2928,10 +2844,8 @@
       <c r="G52" t="n">
         <v>1.2898074388504</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H52" t="n">
+        <v>238.1180858066917</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -2976,10 +2890,8 @@
       <c r="G53" t="n">
         <v>-0.786164522171021</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H53" t="n">
+        <v>47.69443485763589</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -3024,10 +2936,8 @@
       <c r="G54" t="n">
         <v>-0.0970938131213188</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H54" t="n">
+        <v>96.54933333333334</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -3072,10 +2982,8 @@
       <c r="G55" t="n">
         <v>1.9906097650528</v>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H55" t="n">
+        <v>146.418325</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -3120,10 +3028,8 @@
       <c r="G56" t="n">
         <v>-0.0677330642938614</v>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H56" t="n">
+        <v>233.9078285750352</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -3168,10 +3074,8 @@
       <c r="G57" t="n">
         <v>-0.513090252876282</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H57" t="n">
+        <v>18.54860331161113</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -3216,10 +3120,8 @@
       <c r="G58" t="n">
         <v>-0.308546245098114</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H58" t="n">
+        <v>71.66104445160251</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -3264,10 +3166,8 @@
       <c r="G59" t="n">
         <v>-0.447546809911728</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H59" t="n">
+        <v>109.7615932492842</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -3312,10 +3212,8 @@
       <c r="G60" t="n">
         <v>-1.73040449619293</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H60" t="n">
+        <v>29.90984141392488</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -3360,10 +3258,8 @@
       <c r="G61" t="n">
         <v>0.92075788974762</v>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H61" t="n">
+        <v>94.8822087969797</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -3408,10 +3304,8 @@
       <c r="G62" t="n">
         <v>1.34313404560089</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H62" t="n">
+        <v>31.13291228070175</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -3456,10 +3350,8 @@
       <c r="G63" t="n">
         <v>-0.745265185832977</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H63" t="n">
+        <v>106.5799119030379</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -3504,10 +3396,8 @@
       <c r="G64" t="n">
         <v>1.75512683391571</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H64" t="n">
+        <v>18.23016591341208</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -3552,10 +3442,8 @@
       <c r="G65" t="n">
         <v>0.591782867908478</v>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H65" t="n">
+        <v>50.60810071154899</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -3600,10 +3488,8 @@
       <c r="G66" t="n">
         <v>1.165806889534</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H66" t="n">
+        <v>123.7575339188432</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -3698,10 +3584,8 @@
       <c r="G68" t="n">
         <v>0.379839152097702</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H68" t="n">
+        <v>161.6157142857143</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -3746,10 +3630,8 @@
       <c r="G69" t="n">
         <v>-0.726116597652435</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H69" t="n">
+        <v>9.085958784491792</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -3794,10 +3676,8 @@
       <c r="G70" t="n">
         <v>1.23863482475281</v>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H70" t="n">
+        <v>277.0482866944984</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -3842,10 +3722,8 @@
       <c r="G71" t="n">
         <v>0.650825500488281</v>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H71" t="n">
+        <v>64.88348087756749</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -3890,10 +3768,8 @@
       <c r="G72" t="n">
         <v>-0.0625455379486084</v>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H72" t="n">
+        <v>144.3000839438675</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -3988,10 +3864,8 @@
       <c r="G74" t="n">
         <v>-0.941579163074493</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H74" t="n">
+        <v>55.0704297574475</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -4036,10 +3910,8 @@
       <c r="G75" t="n">
         <v>-0.674558699131012</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H75" t="n">
+        <v>260.8612648221344</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -4084,10 +3956,8 @@
       <c r="G76" t="n">
         <v>-1.48615753650665</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H76" t="n">
+        <v>73.28310810810811</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -4132,10 +4002,8 @@
       <c r="G77" t="n">
         <v>-1.29638779163361</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H77" t="n">
+        <v>58.26973262032086</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -4180,10 +4048,8 @@
       <c r="G78" t="n">
         <v>0.447398781776428</v>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H78" t="n">
+        <v>81.99539953452289</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -4228,10 +4094,8 @@
       <c r="G79" t="n">
         <v>0.0384795591235161</v>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H79" t="n">
+        <v>366.5</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -4326,10 +4190,8 @@
       <c r="G81" t="n">
         <v>-0.906891822814941</v>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H81" t="n">
+        <v>159.6654162000746</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -4424,10 +4286,8 @@
       <c r="G83" t="n">
         <v>-0.265898406505585</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H83" t="n">
+        <v>4.087208534417069</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -4522,10 +4382,8 @@
       <c r="G85" t="n">
         <v>-0.866467356681824</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H85" t="n">
+        <v>91.86115828045402</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -4570,10 +4428,8 @@
       <c r="G86" t="n">
         <v>0.581651031970978</v>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H86" t="n">
+        <v>69.31736954967835</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -4618,10 +4474,8 @@
       <c r="G87" t="n">
         <v>-2.22696566581726</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H87" t="n">
+        <v>415.3689767779391</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -4666,10 +4520,8 @@
       <c r="G88" t="n">
         <v>0.534344553947449</v>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H88" t="n">
+        <v>106.3981043173351</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -4714,10 +4566,8 @@
       <c r="G89" t="n">
         <v>0.436999291181564</v>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H89" t="n">
+        <v>144.6473804014844</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -4812,10 +4662,8 @@
       <c r="G91" t="n">
         <v>0.370331406593323</v>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H91" t="n">
+        <v>473.4187327416008</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -4860,10 +4708,8 @@
       <c r="G92" t="n">
         <v>1.54913818836212</v>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H92" t="n">
+        <v>73.06087966323123</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -4908,10 +4754,8 @@
       <c r="G93" t="n">
         <v>-0.882116675376892</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H93" t="n">
+        <v>54.19009676425269</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -4956,10 +4800,8 @@
       <c r="G94" t="n">
         <v>-1.30191540718079</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H94" t="n">
+        <v>100.2782405189253</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -5004,10 +4846,8 @@
       <c r="G95" t="n">
         <v>1.56327533721924</v>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H95" t="n">
+        <v>3.694535356540712</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -5052,10 +4892,8 @@
       <c r="G96" t="n">
         <v>1.23656439781189</v>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H96" t="n">
+        <v>433.0591497227357</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -5100,10 +4938,8 @@
       <c r="G97" t="n">
         <v>0.449057072401047</v>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H97" t="n">
+        <v>199.9654162594643</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -5148,10 +4984,8 @@
       <c r="G98" t="n">
         <v>0.604482173919678</v>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H98" t="n">
+        <v>261.0983379501385</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -5196,10 +5030,8 @@
       <c r="G99" t="n">
         <v>0.194713801145554</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H99" t="n">
+        <v>125.5521544248485</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -5244,10 +5076,8 @@
       <c r="G100" t="n">
         <v>1.61974680423737</v>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H100" t="n">
+        <v>344.8054677640604</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -5292,10 +5122,8 @@
       <c r="G101" t="n">
         <v>0.143430486321449</v>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H101" t="n">
+        <v>7.038184983516687</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -5340,10 +5168,8 @@
       <c r="G102" t="n">
         <v>-0.300569444894791</v>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H102" t="n">
+        <v>93.13282144990687</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -5388,10 +5214,8 @@
       <c r="G103" t="n">
         <v>-0.8890006542205811</v>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H103" t="n">
+        <v>35.31491136600626</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -5436,10 +5260,8 @@
       <c r="G104" t="n">
         <v>-0.351662397384644</v>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H104" t="n">
+        <v>93.97814978472694</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -5484,10 +5306,8 @@
       <c r="G105" t="n">
         <v>0.167575597763062</v>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H105" t="n">
+        <v>159.1037037037037</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -5532,10 +5352,8 @@
       <c r="G106" t="n">
         <v>0.392122596502304</v>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H106" t="n">
+        <v>183.1</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -5580,10 +5398,8 @@
       <c r="G107" t="n">
         <v>1.34957349300385</v>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H107" t="n">
+        <v>530.1729098360656</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -5678,10 +5494,8 @@
       <c r="G109" t="n">
         <v>0.112373597919941</v>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H109" t="n">
+        <v>238.5024691358025</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
@@ -5726,10 +5540,8 @@
       <c r="G110" t="n">
         <v>-0.595122039318085</v>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H110" t="n">
+        <v>32.1709575389948</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
@@ -5774,10 +5586,8 @@
       <c r="G111" t="n">
         <v>-1.45865571498871</v>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H111" t="n">
+        <v>546.689247311828</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
@@ -5822,10 +5632,8 @@
       <c r="G112" t="n">
         <v>-1.43825364112854</v>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H112" t="n">
+        <v>53.91835548172757</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
@@ -5870,10 +5678,8 @@
       <c r="G113" t="n">
         <v>-1.75491416454315</v>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H113" t="n">
+        <v>3.827862395853462</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -5918,10 +5724,8 @@
       <c r="G114" t="n">
         <v>-0.0970938131213188</v>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H114" t="n">
+        <v>294.5098360655738</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -5966,10 +5770,8 @@
       <c r="G115" t="n">
         <v>1.48783588409424</v>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H115" t="n">
+        <v>243.99375</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -6014,10 +5816,8 @@
       <c r="G116" t="n">
         <v>-0.391204476356506</v>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H116" t="n">
+        <v>358.1635952150016</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -6062,10 +5862,8 @@
       <c r="G117" t="n">
         <v>-0.890573918819427</v>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H117" t="n">
+        <v>75.14670619235837</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -6110,10 +5908,8 @@
       <c r="G118" t="n">
         <v>0.994318783283234</v>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H118" t="n">
+        <v>44.73469094393867</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -6158,10 +5954,8 @@
       <c r="G119" t="n">
         <v>1.77271509170532</v>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H119" t="n">
+        <v>248.6206816186696</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
@@ -6206,10 +6000,8 @@
       <c r="G120" t="n">
         <v>0.691895127296448</v>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H120" t="n">
+        <v>30.28266109593444</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
@@ -6354,10 +6146,8 @@
       <c r="G123" t="n">
         <v>-0.131649643182755</v>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H123" t="n">
+        <v>83.07547389648219</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
@@ -6402,10 +6192,8 @@
       <c r="G124" t="n">
         <v>2.04689598083496</v>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H124" t="n">
+        <v>17603.64683301343</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
@@ -6450,10 +6238,8 @@
       <c r="G125" t="n">
         <v>-0.307013601064682</v>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H125" t="n">
+        <v>90.110355122019</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
@@ -6498,10 +6284,8 @@
       <c r="G126" t="n">
         <v>-0.987728238105774</v>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H126" t="n">
+        <v>49.70033172911653</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
@@ -6546,10 +6330,8 @@
       <c r="G127" t="n">
         <v>-0.134175449609756</v>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H127" t="n">
+        <v>1738.19</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
@@ -6594,10 +6376,8 @@
       <c r="G128" t="n">
         <v>-0.280898958444595</v>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H128" t="n">
+        <v>65.17921654363538</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
@@ -6642,10 +6422,8 @@
       <c r="G129" t="n">
         <v>0.230687335133553</v>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H129" t="n">
+        <v>233.6111111111111</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
@@ -6690,10 +6468,8 @@
       <c r="G130" t="n">
         <v>-0.0810714960098267</v>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H130" t="n">
+        <v>81.88310864393338</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
@@ -6738,10 +6514,8 @@
       <c r="G131" t="n">
         <v>-1.19682347774506</v>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H131" t="n">
+        <v>17.95210827821897</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
@@ -6786,10 +6560,8 @@
       <c r="G132" t="n">
         <v>0.80439019203186</v>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H132" t="n">
+        <v>1620.425</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
@@ -6834,10 +6606,8 @@
       <c r="G133" t="n">
         <v>-1.68404102325439</v>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H133" t="n">
+        <v>82.42769546631528</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
@@ -6882,10 +6652,8 @@
       <c r="G134" t="n">
         <v>-0.0270149894058704</v>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H134" t="n">
+        <v>46.03799256505576</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
@@ -6930,10 +6698,8 @@
       <c r="G135" t="n">
         <v>-0.424908697605133</v>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H135" t="n">
+        <v>2.149449087548242</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
@@ -7028,10 +6794,8 @@
       <c r="G137" t="n">
         <v>-0.714270293712616</v>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H137" t="n">
+        <v>40.79080342836797</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
@@ -7076,10 +6840,8 @@
       <c r="G138" t="n">
         <v>-0.701024174690247</v>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H138" t="n">
+        <v>4.477514310662657</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
@@ -7124,10 +6886,8 @@
       <c r="G139" t="n">
         <v>0.750284731388092</v>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H139" t="n">
+        <v>634.1181772658988</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
@@ -7172,10 +6932,8 @@
       <c r="G140" t="n">
         <v>-0.840930998325348</v>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H140" t="n">
+        <v>210.9645948239287</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
@@ -7220,10 +6978,8 @@
       <c r="G141" t="n">
         <v>0.993270576000214</v>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H141" t="n">
+        <v>102.1880200882666</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
@@ -7318,10 +7074,8 @@
       <c r="G143" t="n">
         <v>0.0394995212554932</v>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H143" t="n">
+        <v>3.073219643139113</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
@@ -7416,10 +7170,8 @@
       <c r="G145" t="n">
         <v>-0.639215767383575</v>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H145" t="n">
+        <v>19.93583484645141</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
@@ -7464,10 +7216,8 @@
       <c r="G146" t="n">
         <v>-1.03512346744537</v>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H146" t="n">
+        <v>234.308687154825</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
@@ -7512,10 +7262,8 @@
       <c r="G147" t="n">
         <v>-1.03581631183624</v>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H147" t="n">
+        <v>56.92654146584677</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
@@ -7610,10 +7358,8 @@
       <c r="G149" t="n">
         <v>1.57946932315826</v>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H149" t="n">
+        <v>520.7319275319276</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
@@ -7658,10 +7404,8 @@
       <c r="G150" t="n">
         <v>1.94218063354492</v>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H150" t="n">
+        <v>14.84700908666648</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
@@ -7706,10 +7450,8 @@
       <c r="G151" t="n">
         <v>-0.917344748973846</v>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H151" t="n">
+        <v>209.5220718521102</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
@@ -7754,10 +7496,8 @@
       <c r="G152" t="n">
         <v>0.199985399842262</v>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H152" t="n">
+        <v>625.55</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
@@ -7802,10 +7542,8 @@
       <c r="G153" t="n">
         <v>1.34053194522858</v>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H153" t="n">
+        <v>19.41209980631195</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
@@ -7850,10 +7588,8 @@
       <c r="G154" t="n">
         <v>0.0220412891358137</v>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H154" t="n">
+        <v>14.60572213247173</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
@@ -7898,10 +7634,8 @@
       <c r="G155" t="n">
         <v>-0.623640716075897</v>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H155" t="n">
+        <v>300.1791679638854</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
@@ -7946,10 +7680,8 @@
       <c r="G156" t="n">
         <v>-0.127450808882713</v>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H156" t="n">
+        <v>58.65822324076571</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
@@ -7994,10 +7726,8 @@
       <c r="G157" t="n">
         <v>-0.39776611328125</v>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H157" t="n">
+        <v>26.34021171875</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
@@ -8042,10 +7772,8 @@
       <c r="G158" t="n">
         <v>0.0647772029042244</v>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H158" t="n">
+        <v>381.9308716504008</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
@@ -8090,10 +7818,8 @@
       <c r="G159" t="n">
         <v>0.449828535318375</v>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H159" t="n">
+        <v>39.18260869565217</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
@@ -8138,10 +7864,8 @@
       <c r="G160" t="n">
         <v>-0.807290256023407</v>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H160" t="n">
+        <v>21.97022700172239</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
@@ -8186,10 +7910,8 @@
       <c r="G161" t="n">
         <v>0.25948902964592</v>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H161" t="n">
+        <v>123.3163149297615</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
@@ -8284,10 +8006,8 @@
       <c r="G163" t="n">
         <v>-1.46298551559448</v>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H163" t="n">
+        <v>215.6956149821443</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
@@ -8332,10 +8052,8 @@
       <c r="G164" t="n">
         <v>1.00159108638763</v>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H164" t="n">
+        <v>113.1135105277407</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
@@ -8380,10 +8098,8 @@
       <c r="G165" t="n">
         <v>-0.613315761089325</v>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H165" t="n">
+        <v>16.8733929020891</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
@@ -8478,10 +8194,8 @@
       <c r="G167" t="n">
         <v>1.13682854175568</v>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H167" t="n">
+        <v>233.9630113141862</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
@@ -8576,10 +8290,8 @@
       <c r="G169" t="n">
         <v>-0.6954110264778141</v>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H169" t="n">
+        <v>8.80085645181283</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
@@ -8624,10 +8336,8 @@
       <c r="G170" t="n">
         <v>0.232485979795456</v>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H170" t="n">
+        <v>545.6784758816376</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
@@ -8672,10 +8382,8 @@
       <c r="G171" t="n">
         <v>0.5830507874488829</v>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H171" t="n">
+        <v>16.72352571766162</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
@@ -8720,10 +8428,8 @@
       <c r="G172" t="n">
         <v>-1.70530915260315</v>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H172" t="n">
+        <v>24.44175695931478</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
@@ -8768,10 +8474,8 @@
       <c r="G173" t="n">
         <v>-0.00124927773140371</v>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H173" t="n">
+        <v>87.65761180075832</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
@@ -8816,10 +8520,8 @@
       <c r="G174" t="n">
         <v>2.14482593536377</v>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H174" t="n">
+        <v>7595.49582172702</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
@@ -8864,10 +8566,8 @@
       <c r="G175" t="n">
         <v>-0.674787521362305</v>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H175" t="n">
+        <v>25.28942479456949</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
@@ -8912,10 +8612,8 @@
       <c r="G176" t="n">
         <v>-1.16025280952454</v>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H176" t="n">
+        <v>116.6616929897478</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
@@ -8960,10 +8658,8 @@
       <c r="G177" t="n">
         <v>-0.320332825183868</v>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H177" t="n">
+        <v>304.7377895752896</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
@@ -9008,10 +8704,8 @@
       <c r="G178" t="n">
         <v>1.77110064029694</v>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H178" t="n">
+        <v>562.4166666666666</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
@@ -9056,10 +8750,8 @@
       <c r="G179" t="n">
         <v>-2.02636790275574</v>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H179" t="n">
+        <v>27.20308126374853</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
@@ -9104,10 +8796,8 @@
       <c r="G180" t="n">
         <v>0.06566847860813139</v>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H180" t="n">
+        <v>81.27394458318469</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
@@ -9152,10 +8842,8 @@
       <c r="G181" t="n">
         <v>-0.843731462955475</v>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H181" t="n">
+        <v>232.403125</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
@@ -9200,10 +8888,8 @@
       <c r="G182" t="n">
         <v>-0.943955838680267</v>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H182" t="n">
+        <v>3.929391025641026</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
@@ -9248,10 +8934,8 @@
       <c r="G183" t="n">
         <v>0.378621488809586</v>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H183" t="n">
+        <v>113.2954866888519</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
@@ -9296,10 +8980,8 @@
       <c r="G184" t="n">
         <v>1.0690666437149</v>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H184" t="n">
+        <v>104.6899644425021</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
@@ -9344,10 +9026,8 @@
       <c r="G185" t="n">
         <v>1.57297706604004</v>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H185" t="n">
+        <v>25.57385697443113</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
@@ -9392,10 +9072,8 @@
       <c r="G186" t="n">
         <v>-0.686120450496674</v>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H186" t="n">
+        <v>69.31808139534884</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
@@ -9490,10 +9168,8 @@
       <c r="G188" t="n">
         <v>0.662167310714722</v>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H188" t="n">
+        <v>215.7782608695652</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
@@ -9538,10 +9214,8 @@
       <c r="G189" t="n">
         <v>-1.75204491615295</v>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H189" t="n">
+        <v>116.1268147906116</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
@@ -9636,10 +9310,8 @@
       <c r="G191" t="n">
         <v>-1.42290568351746</v>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H191" t="n">
+        <v>13.64337674714104</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
@@ -9684,10 +9356,8 @@
       <c r="G192" t="n">
         <v>-0.64258873462677</v>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H192" t="n">
+        <v>158.9415149843721</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
@@ -9732,10 +9402,8 @@
       <c r="G193" t="n">
         <v>0.128285065293312</v>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H193" t="n">
+        <v>140.1497445634089</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
@@ -9780,10 +9448,8 @@
       <c r="G194" t="n">
         <v>-0.756126046180725</v>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H194" t="n">
+        <v>70.2504791411485</v>
       </c>
       <c r="I194" t="inlineStr">
         <is>
@@ -9828,10 +9494,8 @@
       <c r="G195" t="n">
         <v>-1.1583536863327</v>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H195" t="n">
+        <v>13.49531845168429</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
@@ -9926,10 +9590,8 @@
       <c r="G197" t="n">
         <v>-0.16647757589817</v>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H197" t="n">
+        <v>147.2458333333333</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
@@ -9974,10 +9636,8 @@
       <c r="G198" t="n">
         <v>-0.0251202769577503</v>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H198" t="n">
+        <v>297.4001949317739</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
@@ -10022,10 +9682,8 @@
       <c r="G199" t="n">
         <v>-0.299408107995987</v>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H199" t="n">
+        <v>78.93245365602472</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
@@ -10070,10 +9728,8 @@
       <c r="G200" t="n">
         <v>-0.19902965426445</v>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H200" t="n">
+        <v>109.334768655068</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
@@ -10118,10 +9774,8 @@
       <c r="G201" t="n">
         <v>-0.311674624681473</v>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H201" t="n">
+        <v>373.4666666666666</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
@@ -10166,10 +9820,8 @@
       <c r="G202" t="n">
         <v>-0.42673471570015</v>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H202" t="n">
+        <v>71.78633325807181</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
@@ -10214,10 +9866,8 @@
       <c r="G203" t="n">
         <v>-0.5839691758155821</v>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H203" t="n">
+        <v>228.6743367245163</v>
       </c>
       <c r="I203" t="inlineStr">
         <is>
@@ -10262,10 +9912,8 @@
       <c r="G204" t="n">
         <v>-0.496294170618057</v>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H204" t="n">
+        <v>75.63496893337935</v>
       </c>
       <c r="I204" t="inlineStr">
         <is>
@@ -10310,10 +9958,8 @@
       <c r="G205" t="n">
         <v>0.849962711334229</v>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H205" t="n">
+        <v>19.57639126956919</v>
       </c>
       <c r="I205" t="inlineStr">
         <is>
@@ -10358,10 +10004,8 @@
       <c r="G206" t="n">
         <v>1.25599312782288</v>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H206" t="n">
+        <v>36.29783632980666</v>
       </c>
       <c r="I206" t="inlineStr">
         <is>
@@ -10406,10 +10050,8 @@
       <c r="G207" t="n">
         <v>-0.329515904188156</v>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H207" t="n">
+        <v>79.23490819306801</v>
       </c>
       <c r="I207" t="inlineStr">
         <is>
@@ -10454,10 +10096,8 @@
       <c r="G208" t="n">
         <v>0.317980945110321</v>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H208" t="n">
+        <v>267.5179487179487</v>
       </c>
       <c r="I208" t="inlineStr">
         <is>
@@ -10502,10 +10142,8 @@
       <c r="G209" t="n">
         <v>-1.68818092346191</v>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H209" t="n">
+        <v>31.97082591689814</v>
       </c>
       <c r="I209" t="inlineStr">
         <is>
@@ -10600,10 +10238,8 @@
       <c r="G211" t="n">
         <v>0.17549079656601</v>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H211" t="n">
+        <v>310.9732315771674</v>
       </c>
       <c r="I211" t="inlineStr">
         <is>
@@ -10648,10 +10284,8 @@
       <c r="G212" t="n">
         <v>-0.536280393600464</v>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H212" t="n">
+        <v>26.18022969647252</v>
       </c>
       <c r="I212" t="inlineStr">
         <is>
@@ -10746,10 +10380,8 @@
       <c r="G214" t="n">
         <v>0.304703801870346</v>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H214" t="n">
+        <v>78.69208633093525</v>
       </c>
       <c r="I214" t="inlineStr">
         <is>
@@ -10794,10 +10426,8 @@
       <c r="G215" t="n">
         <v>-2.23254156112671</v>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H215" t="n">
+        <v>62.46877852908309</v>
       </c>
       <c r="I215" t="inlineStr">
         <is>
@@ -10842,10 +10472,8 @@
       <c r="G216" t="n">
         <v>-0.125317960977554</v>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H216" t="n">
+        <v>48.95947951100083</v>
       </c>
       <c r="I216" t="inlineStr">
         <is>
@@ -10940,10 +10568,8 @@
       <c r="G218" t="n">
         <v>-0.658232748508453</v>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H218" t="n">
+        <v>26.19503221727492</v>
       </c>
       <c r="I218" t="inlineStr">
         <is>
@@ -10988,10 +10614,8 @@
       <c r="G219" t="n">
         <v>-1.25461292266846</v>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="H219" t="n">
+        <v>41.34295980354143</v>
       </c>
       <c r="I219" t="inlineStr">
         <is>

--- a/Country_Data_RAW.xlsx
+++ b/Country_Data_RAW.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>[...] Group</t>
+          <t>TradeBloc</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>SAARC</t>
         </is>
       </c>
     </row>
@@ -714,7 +714,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>CEFTA</t>
         </is>
       </c>
     </row>
@@ -760,7 +760,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>GCC</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>USAN</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>CARICOM</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>EU</t>
         </is>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>EU</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>SAARC</t>
         </is>
       </c>
     </row>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>EU</t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>GCC</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>CEFTA</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>CAIS</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>USAN</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>USAN</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>CARICOM</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>SAARC</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>USMCA</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>EFTA</t>
         </is>
       </c>
     </row>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>USAN</t>
         </is>
       </c>
     </row>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>USAN</t>
         </is>
       </c>
     </row>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>CAIS</t>
         </is>
       </c>
     </row>
@@ -2762,7 +2762,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>EU</t>
         </is>
       </c>
     </row>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>EU</t>
         </is>
       </c>
     </row>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>EU</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>CARICOM</t>
         </is>
       </c>
     </row>
@@ -2992,7 +2992,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>EU</t>
         </is>
       </c>
     </row>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>USAN</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>EU</t>
         </is>
       </c>
     </row>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>EU</t>
         </is>
       </c>
     </row>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>EU</t>
         </is>
       </c>
     </row>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>EU</t>
         </is>
       </c>
     </row>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>EU</t>
         </is>
       </c>
     </row>
@@ -4104,7 +4104,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>CARICOM</t>
         </is>
       </c>
     </row>
@@ -4200,7 +4200,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>CAIS</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>USAN</t>
         </is>
       </c>
     </row>
@@ -4392,7 +4392,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>CAIS</t>
         </is>
       </c>
     </row>
@@ -4484,7 +4484,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>CARICOM</t>
         </is>
       </c>
     </row>
@@ -4530,7 +4530,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>EU</t>
         </is>
       </c>
     </row>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>ASEAN</t>
         </is>
       </c>
     </row>
@@ -4672,7 +4672,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>SAARC</t>
         </is>
       </c>
     </row>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>EFTA</t>
         </is>
       </c>
     </row>
@@ -4948,7 +4948,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>EU</t>
         </is>
       </c>
     </row>
@@ -4994,7 +4994,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>CARICOM</t>
         </is>
       </c>
     </row>
@@ -5270,7 +5270,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>ASEAN</t>
         </is>
       </c>
     </row>
@@ -5458,7 +5458,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>CEFTA</t>
         </is>
       </c>
     </row>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>GCC</t>
         </is>
       </c>
     </row>
@@ -5780,7 +5780,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>EFTA</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>SAARC</t>
         </is>
       </c>
     </row>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>EU</t>
         </is>
       </c>
     </row>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>EU</t>
         </is>
       </c>
     </row>
@@ -6010,7 +6010,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>EU</t>
         </is>
       </c>
     </row>
@@ -6248,7 +6248,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>CEFTA</t>
         </is>
       </c>
     </row>
@@ -6340,7 +6340,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>SAARC</t>
         </is>
       </c>
     </row>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>USMCA</t>
         </is>
       </c>
     </row>
@@ -6570,7 +6570,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>EU</t>
         </is>
       </c>
     </row>
@@ -6616,7 +6616,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>ASEAN</t>
         </is>
       </c>
     </row>
@@ -6662,7 +6662,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>CEFTA</t>
         </is>
       </c>
     </row>
@@ -6988,7 +6988,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>ASEAN</t>
         </is>
       </c>
     </row>
@@ -7272,7 +7272,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>CAIS</t>
         </is>
       </c>
     </row>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>EU</t>
         </is>
       </c>
     </row>
@@ -7414,7 +7414,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>EFTA</t>
         </is>
       </c>
     </row>
@@ -7460,7 +7460,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>SAARC</t>
         </is>
       </c>
     </row>
@@ -7598,7 +7598,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>GCC</t>
         </is>
       </c>
     </row>
@@ -7644,7 +7644,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>SAARC</t>
         </is>
       </c>
     </row>
@@ -7690,7 +7690,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>CAIS</t>
         </is>
       </c>
     </row>
@@ -7736,7 +7736,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>USAN</t>
         </is>
       </c>
     </row>
@@ -7782,7 +7782,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>ASEAN</t>
         </is>
       </c>
     </row>
@@ -7920,7 +7920,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>EU</t>
         </is>
       </c>
     </row>
@@ -8062,7 +8062,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>EU</t>
         </is>
       </c>
     </row>
@@ -8108,7 +8108,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>USAN</t>
         </is>
       </c>
     </row>
@@ -8204,7 +8204,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>GCC</t>
         </is>
       </c>
     </row>
@@ -8254,7 +8254,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>EU</t>
         </is>
       </c>
     </row>
@@ -8392,7 +8392,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>GCC</t>
         </is>
       </c>
     </row>
@@ -8530,7 +8530,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>ASEAN</t>
         </is>
       </c>
     </row>
@@ -8668,7 +8668,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>CAIS</t>
         </is>
       </c>
     </row>
@@ -8806,7 +8806,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>CEFTA</t>
         </is>
       </c>
     </row>
@@ -8898,7 +8898,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>USAN</t>
         </is>
       </c>
     </row>
@@ -8990,7 +8990,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>EU</t>
         </is>
       </c>
     </row>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>EU</t>
         </is>
       </c>
     </row>
@@ -9412,7 +9412,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>ASEAN</t>
         </is>
       </c>
     </row>
@@ -9646,7 +9646,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>CARICOM</t>
         </is>
       </c>
     </row>
@@ -9968,7 +9968,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>USAN</t>
         </is>
       </c>
     </row>
@@ -10014,7 +10014,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>USMCA</t>
         </is>
       </c>
     </row>
@@ -10248,7 +10248,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>ASEAN</t>
         </is>
       </c>
     </row>
